--- a/output.xlsx
+++ b/output.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,5417 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>promo_price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>brand</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>428043</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Кофе Carte Noire Original в зернах 800 г</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/carte-noire-v-zernah-naturalnyj-zharenyj-800g</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CARTE NOIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>600926871</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Кофе Alta Roma Caffe Latte в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-alta-roma-caffe-latte-v-zernakh-1kg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E3" t="n">
+        <v>999</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ALTA ROMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>623852</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Gold растворимый сублимированный с добавлением натурального жареного молотого кофе, 900г</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-nescafe-gold-rastvorimiy-sublimirovanniy-s-dobavleniem-naturalnogo-zharenogo-molotogo-kofe-900g</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2149</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1699</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>581461</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Кофе Fresco Blend в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/fresco-blend-1000g</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FRESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>556826</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Red Katana в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/bushido-red-1000g</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1699</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>593826</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste трюфель крема в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-v-zernah-egoiste-tryufel-krema-1kg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>87725</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в зернах натуральный жареный 100% арабика Espresso, 1кг</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-v-zernah-naturalnyj-zharenyj-100-arabika-espresso-1kg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1529</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1399</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>562109</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Кофе Fresco Arabica Solo в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/fresco-arabica-solo-v-zernah-1000-g</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>FRESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>87726</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в зернах натуральный жареный 80:20, 1кг</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-v-zernah-naturalnyj-zharenyj-gold-1kg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1529</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>140842</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кофе Lavazza Qualita Oro натуральный жареный в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/v-zernah-lavazza-naturalnyj-zharenyj-qualita-oro-1kg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2249</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LAVAZZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>438533</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Arabica Premium натуральный жареный в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-v-zernah-naturalnyj-zharenyj-arabica-premium-1kg</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>389470</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Кофе Ambassador Nero Espresso Roast в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/ambassador-v-zernah-naturalnyj-zharenyj-nero-1kg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>909</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>AMBASSADOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>584209</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Black Katana в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-zernovoj-bushido-black-katana-1000g</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2699</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1799</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>206514</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Original растворимый, 100г</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/bushido-sublimirovannyj-original-100g</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>899</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>180315</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кофе Alta Roma Espresso в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-alta-roma-espresso-v-zernakh-1kg</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>929</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ALTA ROMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>560305460</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Кофе Poetti Daily Mokka в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-poetti-daily-mokka-v-zernah</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1109</v>
+      </c>
+      <c r="E17" t="n">
+        <v>929</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>POETTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>604905160</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Кофе Monarch Original растворимый, 500г</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-monarch-original-rastvorimyy-500g</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1149</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>630438</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Classic растворимый порошкообразный с добавлением натурального жареного молотого кофе, 900г</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/900g-nescafe-classic</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1819</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>607505817</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Capuccino 8 порций 16 капсул, 192г х 3 шт</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-kofe-v-kapsulah-dolce-gusto-capuccino-8-portsiy-16-kapsul-192g-h-3-sht</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1587</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>565600</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Набор кофе в капсулах Coffesso для кофемашин Nespresso ассорти 50шт, 250г</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/coffesso-nabor-v-kapsulah-50-sht-h-5-g</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1109</v>
+      </c>
+      <c r="E21" t="n">
+        <v>999</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>COFFESSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>90040</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Кофе Lavazza Crema e Gusto Classico молотый, 250г</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/lavazza-naturalnyj-zharenyj-crema-e-gusto-250g</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>469</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LAVAZZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>511428</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах L’or Espresso Delizioso для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/lor-espresso-delizioso-52-g</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>439</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>L'OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>593855</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste гранд крю в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-v-zernah-egoiste-grand-kryu-1kg</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2399</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1819</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>538066</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Red Katana молотый, 227г</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/art_59004</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>669</v>
+      </c>
+      <c r="E25" t="n">
+        <v>429</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>372871</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Delicato для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-delicato-10x5g</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>329</v>
+      </c>
+      <c r="E26" t="n">
+        <v>279</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>313076308</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Кофе Lavazza Expert Gusto Pieno в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-lavazza-expert-gusto-pieno-v-zernah</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1849</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LAVAZZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>498071</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Кофе Kimbo Aroma Gold Arabica в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kimbo-v-zernah-aroma-gold-arabica-1kg</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2179</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>KIMBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>560870</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Espresso в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-espresso-1000g</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2349</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>601739383</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Voyage в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-egoiste-voyage-v-zernah</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2309</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1619</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>530558</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Caffe Crema Intenso Trend Collection в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/v-zernah-julius-meinl-krema-intenso-trend-kollekciya-1000g</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1769</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>537942</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Sensei в зернах, 227г</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/bushido-sensei-227g</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>699</v>
+      </c>
+      <c r="E32" t="n">
+        <v>429</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>553914</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Americano 16шт, 112г</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dolce-gusto-americano-16sht</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>569</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>87727</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в зернах натуральный жареный Silver, 1кг</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-v-zernah-naturalnyj-zharenyj-silver-1kg</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1199</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>537899</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Sensei молотый, 227г</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/art_59002</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>739</v>
+      </c>
+      <c r="E35" t="n">
+        <v>429</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>372713</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Cremoso для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-cremoso-11x5g</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>329</v>
+      </c>
+      <c r="E36" t="n">
+        <v>279</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>471500</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Кофе Illy средней обжарки в зернах, 250г</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/v-zernah-illy-srednej-obzharki-250g</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1599</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ILLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>372900</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Кофе Alta Roma Intenso в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-alta-roma-intenso-v-zernakh-1kg</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ALTA ROMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>445140</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Кофе Lavazza Crema e Aroma натуральный жареный в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/lavazza-v-zernah-naturalnyj-zharenyj-crema-e-aroma-1kg</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LAVAZZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>506800</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Кофе Jardin Bravo Бразилия в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/jardin-bravo-braziliya-1kg</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2349</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>JARDIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>463008</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Kodo растворимый, 95г</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/bushido-v-kristallah-kodo-95g</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>989</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>535333</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Кофе Kimbo Caffe crema classico light в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kimbo-dolche-krem-1kg</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1519</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>KIMBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>511482</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах L’or Espresso Lungo Profondo для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/l-rsquoor-lungo-profondo-52-g</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>439</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>L'OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>529978</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Espresso Premium Collection в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/v-zernah-julius-meinl-espresso-premium-kollekciya-1000g</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>603237407</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Кофе Fresco Horeca arabica в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-fresco-horeca-arabica-zerno</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1309</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1149</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>FRESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>530167</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Сaffe Crema Premium Collection в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/julius-meinl-krema-premium-1kg</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2159</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>539603</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Президент классическая коллекция в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/julius-meinl-prezident-1000g</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>372752</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Forte для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-forte-11x5g</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>329</v>
+      </c>
+      <c r="E48" t="n">
+        <v>279</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>600786550</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Кофе Lebo Gold в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-lebo-gold-v-zernah</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1969</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LEBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>600925386</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Кофе Alta Roma Vero в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-alta-roma-vero-v-zernakh-1kg</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1429</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1139</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ALTA ROMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>564291</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Double Espresso, 100г</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-double-espresso-100g</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>649</v>
+      </c>
+      <c r="E51" t="n">
+        <v>399</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>510964</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах L’or Espresso Forza для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/l-rsquoor-espr-forza-52-g</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>439</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>L'OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>96443</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Кофе Kimbo Superior Blend натуральный жареный в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kimbo-v-zernah-naturalnyj-zharenyj-superior-blend-1kg</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>KIMBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>600788225</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Кофе Lebo Classic в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-lebo-classic-v-zernah</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1399</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LEBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>373088</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Decaffeinato без кофеина для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-decaffein-11x5g</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>329</v>
+      </c>
+      <c r="E55" t="n">
+        <v>279</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>607505822</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Latte Macciato 8 порций 16 капсул, 192г х 3 шт</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-kofe-v-kapsulah-dolce-gusto-latte-macciato-8-portsiy-16-kapsul-192g-h-3-sht</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1587</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>630253</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Кофе Kimbo Caffe Crema Dolce Medium в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kimbo-caffe-crema-dolce-medium</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2239</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>KIMBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>85051</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Кофе Московская кофейня на паяхъ Арабика растворимый сублимированный, 95г</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/moskovskaya-kofejnya-na-payah-sublimirovannyj-arabika-95g</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>549</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>МОСКОВСКАЯ КОФЕЙНЯ НА ПАЯХЪ</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>637270</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Кофе Lebo Classic молотый для турки, 200г</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/200g-lebo-classic-dlya-turki</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>259</v>
+      </c>
+      <c r="E59" t="n">
+        <v>219</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LEBO CLASSIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>241757</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Noir молотый, 250г</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-naturalnyj-zharenyj-250g</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>669</v>
+      </c>
+      <c r="E60" t="n">
+        <v>449</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>466552</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Gold растворимый сублимированный, 500г</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/nescafe-sublimirovannyj-gold-500g</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1399</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1119</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>559689</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Кофе Dallmayr Crema Prodomo в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/dallmayr-crema-prodomo-v-zernah-1000-g</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2419</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>DALLMAYR</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>607504392</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Grande Intenso 16шт, 112г х 3 шт</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-kofe-v-kapsulah-dolce-gusto-grande-intenso-16sht-112g-h-3-sht</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1587</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>511215</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах L’or Espresso Ristretto для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/l-rsquoor-ristretto-52-g</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>439</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>L'OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>603237412</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Кофе Fresco Liberty в зернах, 900г</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/900g-kofe-fresco-liberty-zerno</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1189</v>
+      </c>
+      <c r="E65" t="n">
+        <v>999</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>FRESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>567592</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Arabica Premium натуральный жареный в зернах, 1кг x 4 шт</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/v-zernah-egoiste-noir-100-arabika-1kg</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>8396</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>614825</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Delicato для кофемашин Nespresso 11шт, 55г x 10 шт</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-delicato-10x5g-120485</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>601741143</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Кофе Jardin Gold растворимый, 190г</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/190g-kofe-jardin-gold-rastvorimyy-stb</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>659</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>JARDIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>607370490</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Напиток кофейный Monarch Strong 3в1 растворимый (13г x 50шт), 650г</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/napitok-kofeynyy-monarch-strong-3v1-rastvorimyy-13g-x-50sht-650g</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>939</v>
+      </c>
+      <c r="E69" t="n">
+        <v>589</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>511257</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах L’or Espresso Splendente для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/lor-espresso-52-g</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>439</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>L'OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>90034</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Кофе Lavazza Qualita Oro молотый, 250г</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/lavazza-naturalnyj-zharenyj-oro-250g</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>669</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LAVAZZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>592003517</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах Lebo Espresso Collection для кофемашин Nespresso 40шт, 220г</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/40shth55g-kofe-lebo-espresso-collection-banka</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LEBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>127393</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Кофе Jardin Guatemala Atitlan натуральный растворимый, 95г</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/jardin-guatemala-atitlan-naturalnyj-95-g</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>251</v>
+      </c>
+      <c r="E73" t="n">
+        <v>239</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>JARDIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>373136</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Armonioso для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-armonioso-10x5g</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>329</v>
+      </c>
+      <c r="E74" t="n">
+        <v>279</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>366644</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Platinum, 100г</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-platinum-100-g</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E75" t="n">
+        <v>689</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>369007168</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Light Katana растворимый, 100г</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/100g-kofe-bushido-light-katana-rastvorimyy</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>999</v>
+      </c>
+      <c r="E76" t="n">
+        <v>746</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>595935453</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Кофе Monarch Original растворимый, 190г</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/190g-kofe-monarch-original-rastvorimyy-st</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>659</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>182092</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Кофе Fresco Arabica Solo растворимый, 100г</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/fresco-arabika-100g</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>499</v>
+      </c>
+      <c r="E78" t="n">
+        <v>249</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>FRESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>463535</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Noir растворимый сублимированный, 100г</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-sublimirovannyj-noir-100g</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>629</v>
+      </c>
+      <c r="E79" t="n">
+        <v>449</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>401918</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Espresso натуральный молотый жареный, 250г</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/art_553579</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>479</v>
+      </c>
+      <c r="E80" t="n">
+        <v>449</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>557382743</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Classic Crema растворимый, 190г</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/190g-kofe-nescafe-classic-crema-rastvorimyy-st-banka</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>419</v>
+      </c>
+      <c r="E81" t="n">
+        <v>359</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>168408</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Эспрессо в зернах, 500г</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/julius-meinl-v-zernah-naturalnyj-zharenyj-president-grande-espresso-500g</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1589</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3595984</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Latte Macciato 8 порций 16 капсул, 192г</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/192g-kofe-v-kaps-rioba-dolce-gusto-latte-macc</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>569</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>607466459</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Кофе Coffesso Massimo зерновой, 1кг</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-coffesso-massimo-zerno</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1579</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1319</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>COFFESSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>562710620</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Кофе Carte Noire Crema Delice в зернах, 800г</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/800g-kofe-carte-noire-crema-delice-zerno</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CARTE NOIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>366062</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Black Katana растворимый, 100г</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/bushido-sublimirovannyj-black-katana-100g</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E86" t="n">
+        <v>809</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>106646</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Special растворимый сублимированный с молотым, 100г</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-sublimirovannnyj-s-molotym-special-100g</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>949</v>
+      </c>
+      <c r="E87" t="n">
+        <v>699</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>530407</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Trend Collection Espresso Classico в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/julius-meinl-espresso-trend-1kg</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>560399740</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Кофе Poetti Daily Classic Crema в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-poetti-daily-classic-crema-v-zernah</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1469</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>POETTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>560305465</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Кофе Poetti Leggenda Original в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-poetti-leggenda-original-v-zernah</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>POETTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>533887</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Кофе Jacobs Espresso жареный в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/jacobs-espresso-zernovoj-1kg</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1479</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>JACOBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>373072</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Intenso для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-intenso-11x5g</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>329</v>
+      </c>
+      <c r="E92" t="n">
+        <v>279</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>604905195</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Кофе Monarch Original растворимый, 210г</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-monarch-original-rastvorimyy-210g</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>819</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>86560</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Кофе Carte Noire Instinct растворимый, 95г</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/art_260443</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>519</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>CARTE NOIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>515234</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Gold растворимый сублимированный с добавлением натурального жареного молотого кофе, 750г</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/nescafe-s-dobavleniem-naturalnogo-zharenogo-molotogo-gold-750g</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2399</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>607835462</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Кофе Monarch Gold растворимый, 500г</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-monarch-gold-rastvorimyy-500g</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>566471</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах Jacobs Espresso №7 Classico для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/jacobs-espresso-7-classico-10sht</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>319</v>
+      </c>
+      <c r="E97" t="n">
+        <v>299</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>JACOBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3595979</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Capuccino 8 порций 16 капсул, 192г</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/192g-kofe-v-kaps-rioba-dolce-gusto-cappuccino</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>569</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>483056</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Gold Barista растворимый сублимированный с добавлением натурального молотого кофе, 400г</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/art_619918</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1099</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>604932641</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Кофе Monarch Brazilian Selection в зернах, 800г</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/800g-kofe-monarch-brazilian-selection-zerno</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1179</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1079</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>651806</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Double Espresso растворимый, 70г</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-double-espresso-70g</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>329</v>
+      </c>
+      <c r="E101" t="n">
+        <v>229</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>428043</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Кофе Carte Noire Original в зернах 800 г</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/carte-noire-v-zernah-naturalnyj-zharenyj-800g</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1509</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>CARTE NOIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>600926871</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Кофе Alta Roma Caffe Latte в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-alta-roma-caffe-latte-v-zernakh-1kg</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E103" t="n">
+        <v>999</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>ALTA ROMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>623852</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Gold растворимый сублимированный с добавлением натурального жареного молотого кофе, 900г</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-nescafe-gold-rastvorimiy-sublimirovanniy-s-dobavleniem-naturalnogo-zharenogo-molotogo-kofe-900g</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2149</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1699</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>581461</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Кофе Fresco Blend в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/fresco-blend-1000g</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>FRESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>556826</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Red Katana в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/bushido-red-1000g</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1699</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>593826</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste трюфель крема в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-v-zernah-egoiste-tryufel-krema-1kg</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>87725</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в зернах натуральный жареный 100% арабика Espresso, 1кг</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-v-zernah-naturalnyj-zharenyj-100-arabika-espresso-1kg</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1539</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1399</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>562109</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Кофе Fresco Arabica Solo в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/fresco-arabica-solo-v-zernah-1000-g</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>FRESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>87726</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в зернах натуральный жареный 80:20, 1кг</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-v-zernah-naturalnyj-zharenyj-gold-1kg</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1529</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>500285</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Кофе Kimbo Intenso в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kimbo-intenso-1kg</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1659</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1369</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>KIMBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>140842</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Кофе Lavazza Qualita Oro натуральный жареный в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/v-zernah-lavazza-naturalnyj-zharenyj-qualita-oro-1kg</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2249</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>LAVAZZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>438533</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Arabica Premium натуральный жареный в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-v-zernah-naturalnyj-zharenyj-arabica-premium-1kg</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>389470</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Кофе Ambassador Nero Espresso Roast в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/ambassador-v-zernah-naturalnyj-zharenyj-nero-1kg</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>889</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>AMBASSADOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>584209</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Black Katana в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-zernovoj-bushido-black-katana-1000g</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2699</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1799</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>206514</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Original растворимый, 100г</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/bushido-sublimirovannyj-original-100g</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>899</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>180315</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Кофе Alta Roma Espresso в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-alta-roma-espresso-v-zernakh-1kg</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E117" t="n">
+        <v>929</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>ALTA ROMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>560305460</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Кофе Poetti Daily Mokka в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-poetti-daily-mokka-v-zernah</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1109</v>
+      </c>
+      <c r="E118" t="n">
+        <v>929</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>POETTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>604905160</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Кофе Monarch Original растворимый, 500г</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-monarch-original-rastvorimyy-500g</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1149</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>630438</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Classic растворимый порошкообразный с добавлением натурального жареного молотого кофе, 900г</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/900g-nescafe-classic</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1819</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>607505817</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Capuccino 8 порций 16 капсул, 192г х 3 шт</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-kofe-v-kapsulah-dolce-gusto-capuccino-8-portsiy-16-kapsul-192g-h-3-sht</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1587</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>565600</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Набор кофе в капсулах Coffesso для кофемашин Nespresso ассорти 50шт, 250г</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/coffesso-nabor-v-kapsulah-50-sht-h-5-g</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E122" t="n">
+        <v>999</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>COFFESSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>90040</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Кофе Lavazza Crema e Gusto Classico молотый, 250г</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/lavazza-naturalnyj-zharenyj-crema-e-gusto-250g</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>469</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LAVAZZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>511428</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах L’or Espresso Delizioso для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/lor-espresso-delizioso-52-g</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>449</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>L'OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>593855</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste гранд крю в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-v-zernah-egoiste-grand-kryu-1kg</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>2619</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1819</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>538066</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Red Katana молотый, 227г</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/art_59004</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>669</v>
+      </c>
+      <c r="E126" t="n">
+        <v>429</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>372871</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Delicato для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-delicato-10x5g</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>297</v>
+      </c>
+      <c r="E127" t="n">
+        <v>279</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>313076308</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Кофе Lavazza Expert Gusto Pieno в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-lavazza-expert-gusto-pieno-v-zernah</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LAVAZZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>498071</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Кофе Kimbo Aroma Gold Arabica в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kimbo-v-zernah-aroma-gold-arabica-1kg</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2439</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>KIMBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>560870</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Espresso в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-espresso-1000g</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>2349</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>530558</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Caffe Crema Intenso Trend Collection в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/v-zernah-julius-meinl-krema-intenso-trend-kollekciya-1000g</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1859</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>537942</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Sensei в зернах, 227г</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/bushido-sensei-227g</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>699</v>
+      </c>
+      <c r="E132" t="n">
+        <v>429</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>87727</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в зернах натуральный жареный Silver, 1кг</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-v-zernah-naturalnyj-zharenyj-silver-1kg</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1199</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>537899</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Sensei молотый, 227г</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/art_59002</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>739</v>
+      </c>
+      <c r="E134" t="n">
+        <v>429</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>372713</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Cremoso для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-cremoso-11x5g</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>297</v>
+      </c>
+      <c r="E135" t="n">
+        <v>279</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>471500</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Кофе Illy средней обжарки в зернах, 250г</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/v-zernah-illy-srednej-obzharki-250g</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1599</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>ILLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>372900</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Кофе Alta Roma Intenso в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-alta-roma-intenso-v-zernakh-1kg</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>ALTA ROMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>445140</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Кофе Lavazza Crema e Aroma натуральный жареный в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/lavazza-v-zernah-naturalnyj-zharenyj-crema-e-aroma-1kg</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LAVAZZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>506800</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Кофе Jardin Bravo Бразилия в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/jardin-bravo-braziliya-1kg</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>2349</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>JARDIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>463008</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Kodo растворимый, 95г</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/bushido-v-kristallah-kodo-95g</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>989</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>535333</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Кофе Kimbo Caffe crema classico light в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kimbo-dolche-krem-1kg</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1519</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>KIMBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>511482</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах L’or Espresso Lungo Profondo для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/l-rsquoor-lungo-profondo-52-g</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>449</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>L'OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>529978</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Espresso Premium Collection в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/v-zernah-julius-meinl-espresso-premium-kollekciya-1000g</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>2479</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>603237407</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Кофе Fresco Horeca arabica в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-fresco-horeca-arabica-zerno</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1309</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1149</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>FRESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>530167</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Сaffe Crema Premium Collection в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/julius-meinl-krema-premium-1kg</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>2259</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>539603</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Президент классическая коллекция в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/julius-meinl-prezident-1000g</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>372752</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Forte для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-forte-11x5g</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>297</v>
+      </c>
+      <c r="E147" t="n">
+        <v>279</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>600925386</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Кофе Alta Roma Vero в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-alta-roma-vero-v-zernakh-1kg</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1139</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ALTA ROMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>564291</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Double Espresso, 100г</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-double-espresso-100g</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>699</v>
+      </c>
+      <c r="E149" t="n">
+        <v>399</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>510964</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах L’or Espresso Forza для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/l-rsquoor-espr-forza-52-g</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>449</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>L'OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>96443</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Кофе Kimbo Superior Blend натуральный жареный в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kimbo-v-zernah-naturalnyj-zharenyj-superior-blend-1kg</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>KIMBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>600788225</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Кофе Lebo Classic в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-lebo-classic-v-zernah</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1409</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LEBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>373088</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Decaffeinato без кофеина для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-decaffein-11x5g</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>297</v>
+      </c>
+      <c r="E153" t="n">
+        <v>279</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>607505822</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Latte Macciato 8 порций 16 капсул, 192г х 3 шт</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-kofe-v-kapsulah-dolce-gusto-latte-macciato-8-portsiy-16-kapsul-192g-h-3-sht</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1587</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>630253</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Кофе Kimbo Caffe Crema Dolce Medium в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kimbo-caffe-crema-dolce-medium</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2239</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>KIMBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>85051</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Кофе Московская кофейня на паяхъ Арабика растворимый сублимированный, 95г</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/moskovskaya-kofejnya-na-payah-sublimirovannyj-arabika-95g</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>549</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>МОСКОВСКАЯ КОФЕЙНЯ НА ПАЯХЪ</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>637270</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Кофе Lebo Classic молотый для турки, 200г</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/200g-lebo-classic-dlya-turki</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>262</v>
+      </c>
+      <c r="E157" t="n">
+        <v>219</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LEBO CLASSIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>241757</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Noir молотый, 250г</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-naturalnyj-zharenyj-250g</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>669</v>
+      </c>
+      <c r="E158" t="n">
+        <v>449</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>466552</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Gold растворимый сублимированный, 500г</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/nescafe-sublimirovannyj-gold-500g</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1619</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1119</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>559689</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Кофе Dallmayr Crema Prodomo в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/dallmayr-crema-prodomo-v-zernah-1000-g</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>2419</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>DALLMAYR</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>607504392</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Grande Intenso 16шт, 112г х 3 шт</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-kofe-v-kapsulah-dolce-gusto-grande-intenso-16sht-112g-h-3-sht</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1587</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>511215</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах L’or Espresso Ristretto для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/l-rsquoor-ristretto-52-g</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>449</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>L'OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>603237412</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Кофе Fresco Liberty в зернах, 900г</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/900g-kofe-fresco-liberty-zerno</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1189</v>
+      </c>
+      <c r="E163" t="n">
+        <v>999</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>FRESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>567592</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Arabica Premium натуральный жареный в зернах, 1кг x 4 шт</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/v-zernah-egoiste-noir-100-arabika-1kg</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>8396</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>614825</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Delicato для кофемашин Nespresso 11шт, 55г x 10 шт</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-delicato-10x5g-120485</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>601741143</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Кофе Jardin Gold растворимый, 190г</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/190g-kofe-jardin-gold-rastvorimyy-stb</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>659</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>JARDIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>607370490</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Напиток кофейный Monarch Strong 3в1 растворимый (13г x 50шт), 650г</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/napitok-kofeynyy-monarch-strong-3v1-rastvorimyy-13g-x-50sht-650g</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>939</v>
+      </c>
+      <c r="E167" t="n">
+        <v>589</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>511257</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах L’or Espresso Splendente для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/lor-espresso-52-g</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>449</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>L'OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>90034</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Кофе Lavazza Qualita Oro молотый, 250г</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/lavazza-naturalnyj-zharenyj-oro-250g</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>669</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LAVAZZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>592003517</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах Lebo Espresso Collection для кофемашин Nespresso 40шт, 220г</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/40shth55g-kofe-lebo-espresso-collection-banka</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1199</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LEBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>127393</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Кофе Jardin Guatemala Atitlan натуральный растворимый, 95г</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/jardin-guatemala-atitlan-naturalnyj-95-g</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>263</v>
+      </c>
+      <c r="E171" t="n">
+        <v>239</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>JARDIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>373136</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Armonioso для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-armonioso-10x5g</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>297</v>
+      </c>
+      <c r="E172" t="n">
+        <v>279</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>366644</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Platinum, 100г</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-platinum-100-g</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E173" t="n">
+        <v>689</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>369007168</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Кофе Bushido Light Katana растворимый, 100г</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/100g-kofe-bushido-light-katana-rastvorimyy</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E174" t="n">
+        <v>746</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>BUSHIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>573978677</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Cafe Crema Gourmet в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-julius-meinl-cafe-crema-gourmet-zerno</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1859</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>595935453</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Кофе Monarch Original растворимый, 190г</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/190g-kofe-monarch-original-rastvorimyy-st</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>659</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>182092</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Кофе Fresco Arabica Solo растворимый, 100г</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/fresco-arabika-100g</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>499</v>
+      </c>
+      <c r="E177" t="n">
+        <v>249</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>FRESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>463535</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Noir растворимый сублимированный, 100г</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-sublimirovannyj-noir-100g</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>599</v>
+      </c>
+      <c r="E178" t="n">
+        <v>449</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>401918</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Espresso натуральный молотый жареный, 250г</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/art_553579</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>499</v>
+      </c>
+      <c r="E179" t="n">
+        <v>449</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>93413</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Gold растворимый, 190г</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/nescafe-sublimirovannyj-gold-190g</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>799</v>
+      </c>
+      <c r="E180" t="n">
+        <v>549</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>168408</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Эспрессо в зернах, 500г</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/julius-meinl-v-zernah-naturalnyj-zharenyj-president-grande-espresso-500g</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1369</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>3595984</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Latte Macciato 8 порций 16 капсул, 192г</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/192g-kofe-v-kaps-rioba-dolce-gusto-latte-macc</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>569</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>607466459</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Кофе Coffesso Massimo зерновой, 1кг</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-coffesso-massimo-zerno</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1319</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>COFFESSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>562710620</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Кофе Carte Noire Crema Delice в зернах, 800г</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/800g-kofe-carte-noire-crema-delice-zerno</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1509</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>CARTE NOIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>106646</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Кофе Egoiste Special растворимый сублимированный с молотым, 100г</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/egoiste-sublimirovannnyj-s-molotym-special-100g</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>899</v>
+      </c>
+      <c r="E185" t="n">
+        <v>699</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>EGOISTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>530407</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Кофе Julius Meinl Trend Collection Espresso Classico в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/julius-meinl-espresso-trend-1kg</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>JULIUS MEINL</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>560399740</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Кофе Poetti Daily Classic Crema в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-poetti-daily-classic-crema-v-zernah</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>1579</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>POETTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>560305465</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Кофе Poetti Leggenda Original в зернах, 1кг</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/1kg-kofe-poetti-leggenda-original-v-zernah</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>2249</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>POETTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>373072</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Intenso для кофемашин Nespresso 11шт, 55г</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-intenso-11x5g</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>297</v>
+      </c>
+      <c r="E189" t="n">
+        <v>279</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>97938</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Кофе Carte Noire Original растворимый сублимированный, 150г</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/carte-noire-sublimirovannyj-original-150g</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>889</v>
+      </c>
+      <c r="E190" t="n">
+        <v>799</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>CARTE NOIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>604905195</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Кофе Monarch Original растворимый, 210г</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-monarch-original-rastvorimyy-210g</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>699</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>86560</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Кофе Carte Noire Instinct растворимый, 95г</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/art_260443</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>519</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>CARTE NOIRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>515234</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Gold растворимый сублимированный с добавлением натурального жареного молотого кофе, 750г</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/nescafe-s-dobavleniem-naturalnogo-zharenogo-molotogo-gold-750g</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>2659</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>566471</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Кофе в капсулах Jacobs Espresso №7 Classico для кофемашин Nespresso 10шт, 52г</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/jacobs-espresso-7-classico-10sht</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>329</v>
+      </c>
+      <c r="E194" t="n">
+        <v>299</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>JACOBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>3595979</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Dolce Gusto Capuccino 8 порций 16 капсул, 192г</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/192g-kofe-v-kaps-rioba-dolce-gusto-cappuccino</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>569</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>483056</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Кофе Nescafe Gold Barista растворимый сублимированный с добавлением натурального молотого кофе, 400г</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/art_619918</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1759</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1099</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>NESCAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>604932641</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Кофе Monarch Brazilian Selection в зернах, 800г</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/800g-kofe-monarch-brazilian-selection-zerno</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1179</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1079</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>595932058</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Кофе Monarch карамель растворимый, 95г</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/95g-kofe-monarch-karamel-rastvorimyy-st</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>389</v>
+      </c>
+      <c r="E198" t="n">
+        <v>379</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>604908590</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Кофе Monarch Velour растворимый, 95г</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/kofe-monarch-velour-rastvorimyy-95g</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>319</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>MONARCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>614669</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>RIOBA Кофе в капсулах Forte для кофемашин Nespresso 11шт, 55г x 10 шт</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/rioba-dlya-kofemashin-forte-10x5g-120486</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>RIOBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>213758</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Кофе Жокей классический молотый натуральный жареный, 250г</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://online.metro-cc.ru/products/zhokej-naturalnyj-zharenyj-klassicheskij-250g</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>359</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>ЖОКЕЙ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>